--- a/Assets.Leaflets/Books.xlsx
+++ b/Assets.Leaflets/Books.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niiin\source\repos\Assets\Assets.Leaflets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6E101A-EA1E-41BC-AE56-3C540024ABCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E002CC-1C9D-414C-95A7-A6620C894AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3255" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{75D82BBF-B237-49FA-B88D-4856BED1D166}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{75D82BBF-B237-49FA-B88D-4856BED1D166}"/>
   </bookViews>
   <sheets>
     <sheet name="区画の内部状態変化" sheetId="2" r:id="rId1"/>
-    <sheet name="図" sheetId="3" r:id="rId2"/>
+    <sheet name="巻子周辺の関係" sheetId="4" r:id="rId2"/>
+    <sheet name="図" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1875,7 +1876,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>冊第が読み込まれるまでは分割されていないので区画が存在しない。</a:t>
+            <a:t>指示子が読み込まれるまでは分割されていないので区画が存在しない。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1957,7 +1958,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>冊第が読み込まれるにしたがって分割、作成されてゆく。</a:t>
+            <a:t>指示子が読み込まれるにしたがって分割、作成されてゆく。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2039,7 +2040,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>読み込みが完了した区画は除去せらる。</a:t>
+            <a:t>読み込みが完了した区画は除去される。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2121,7 +2122,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>冊第を使って望む位置に移動す。</a:t>
+            <a:t>指示子を使って望む位置に移動する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2642,7 +2643,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>移動を行わずとも区画を越えて読み込みを続くることができる。</a:t>
+            <a:t>移動を行わなくとも区画を越えて読み込みを続けることができる。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3142,7 +3143,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>閉ぢる際は、次に搴取を開始すべき場所に位置を合わせて閉ぢる。</a:t>
+            <a:t>閉ぢる際は、次に搴取を開始すべき場所に位置を合わせておく。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6380,7 +6381,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>冊第を取得すると、位置の前に新たな区画が生成せらる。</a:t>
+            <a:t>指示子を取得すると、位置の前に新たな区画が生成される。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7879,7 +7880,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>挿入は即ち前の区画への追記なり。</a:t>
+            <a:t>挿入すると前の区画への追記となる。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9365,7 +9366,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>区画の上限に達すると自動で後続の無名の区画が生成せらる。</a:t>
+            <a:t>区画の上限に達すると自動で後続の無名の区画が生成される。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11207,98 +11208,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="正方形/長方形 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E803C4-FC72-4631-9144-B08CFA5802BC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857751" y="9877425"/>
-          <a:ext cx="276224" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>E</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -12624,9 +12533,9 @@
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
             <a:gd name="adj3" fmla="val 18750"/>
-            <a:gd name="adj4" fmla="val -52717"/>
+            <a:gd name="adj4" fmla="val -17294"/>
             <a:gd name="adj5" fmla="val 63213"/>
-            <a:gd name="adj6" fmla="val -63173"/>
+            <a:gd name="adj6" fmla="val -27124"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -12665,8 +12574,100 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>内部的には末尾に能搴取尢区画在り。</a:t>
-          </a:r>
+            <a:t>末尾以降を読み出しても何も起こらない。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F181A4-12BF-46FA-BA4F-5BA6A17E388C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="9877425"/>
+          <a:ext cx="1381125" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Sect1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12760,6 +12761,2436 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42C251F-6CC9-4925-B70D-A7ECCB554EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="771525"/>
+          <a:ext cx="1866900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>StreamScroll:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バッファと疏を以て実現。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 対角を切り取る 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E63E12CF-6B2A-4AB8-B288-2A90D3EE02C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="771525"/>
+          <a:ext cx="1866900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SectorScroll:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>数據を区画に分ける巻子。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0479FC5F-0136-4010-8ED8-D13BBF9AF740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="257175"/>
+          <a:ext cx="1866900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>IScroll</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7290609C-D4A6-4D05-95C7-EB9F80E988EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="257175"/>
+          <a:ext cx="1866900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DuplicatingScroll</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB047E4F-9CC4-4C4E-88E0-925D440D6F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="4114800"/>
+          <a:ext cx="1866900" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DataBox:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>巻子に特定の書式で書き込まれる形。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA37015-E655-4392-A58D-DB07B261E7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="771525"/>
+          <a:ext cx="1866900" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NetworkStreamScroll:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ネットワーク向け技術</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>型符号化、再帰証</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の導入。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC29D5D-32EB-4E6E-90FF-77D0F522C89F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="6429374"/>
+          <a:ext cx="1866900" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>PortableNetworkGraphic</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCA6A88-7A86-4125-9736-0A9671EEC258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="4629150"/>
+          <a:ext cx="1866900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ArrayBox</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5D8052-E265-4E67-99CA-2CA55DBDCFB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8401050" y="1028700"/>
+          <a:ext cx="933450" cy="128588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84852D21-E2F6-4674-8A6A-C813188309EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5600700" y="1028700"/>
+          <a:ext cx="933450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FBD8E1E-9915-4CB9-BD2A-63F7E08A72E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2800350" y="385764"/>
+          <a:ext cx="933450" cy="642937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DFF2E9-6C62-4DDF-A1DE-F417C74E5895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2800350" y="385763"/>
+          <a:ext cx="933450" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1910EF1F-7D2F-49CC-A086-846004170E18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="1543050"/>
+          <a:ext cx="1866900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DirectoryScroll:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ファイルを以て実現。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF98AC4-D843-4FFF-9EFE-0F40E2EAB1BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5600700" y="1028701"/>
+          <a:ext cx="933450" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D6057CC-39CF-423C-A65D-F89636B044A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="1338263" y="3100387"/>
+          <a:ext cx="3857624" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39630"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C60A338-104F-4640-A5B8-B1EB50206775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="2314575"/>
+          <a:ext cx="1866900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>BoxList:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>巻子を基にした積。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D310AE14-2CB1-470D-90CD-C74E5ADE1765}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5762626" y="3790950"/>
+          <a:ext cx="1543049" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7FFCBC5-4C53-4132-9BE4-68F2F31A2560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="2320926"/>
+          <a:ext cx="1866900" cy="250824"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>IHeap</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4191D3-CA13-4B39-A1BA-26B3AC2701B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2800350" y="2446338"/>
+          <a:ext cx="933450" cy="125412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC12C2E6-1926-4A87-A2A2-D758B6524A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="3086100"/>
+          <a:ext cx="1866900" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ArrayHeap:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>配列を基にした積。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>131764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A362229-FAB5-4E80-8B27-51A91C7B6A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2800350" y="2446339"/>
+          <a:ext cx="933450" cy="896937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CEDBB8-5098-4ECC-B42E-C41816A3C2DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="6429375"/>
+          <a:ext cx="1866900" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>MPEG4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>927101</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C7284E-6C65-43DB-B6A1-641EC1A23CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+          <a:endCxn id="19" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="-61912" y="4500563"/>
+          <a:ext cx="3857625" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{113C7933-839B-4311-A2B4-861E415C43EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2366963" y="14288"/>
+          <a:ext cx="1800225" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0815C99-EE82-4AD1-852B-496F1484E4BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4362450" y="2390775"/>
+          <a:ext cx="1543050" cy="6534150"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FA4F1E-2179-4228-B7D9-89182EBE192F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="4114800"/>
+          <a:ext cx="1866900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>LeafBox</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7142FF17-5131-466D-A23E-A4BC137614B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5600700" y="4243387"/>
+          <a:ext cx="933450" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F54FF91-35B2-4272-BA98-85D5D44521EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5600700" y="4500564"/>
+          <a:ext cx="1866900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD10870-0C87-4368-9FFD-C786FC2A0A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="6429375"/>
+          <a:ext cx="1866900" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>PNMotionGraphic</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E63E646-B952-4966-82CA-0C929A59923F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5600700" y="6557963"/>
+          <a:ext cx="933450" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8528C2F1-1FFF-4669-8B8F-EE05067FBDB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2800350" y="385763"/>
+          <a:ext cx="933450" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="lgDashDotDot"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66493B5-E864-4EDD-916A-DD2B23776797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3638550" y="2600325"/>
+          <a:ext cx="2057400" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C3C400-9D95-41AE-87CF-D9B3488F8D31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="5038726" y="4000500"/>
+          <a:ext cx="2057399" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE7D6E6-9AB3-4BA5-A66D-2D3E54A766F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="5143500"/>
+          <a:ext cx="1866900" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ColorBox</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="04かんじゅくゴシック" panose="02000600000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25067CC-91E1-4FDA-A681-9E008999F601}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="35" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6486526" y="3581400"/>
+          <a:ext cx="1028699" cy="4667250"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>128589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90625F76-95DD-49C7-884A-7427B43C7259}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5600700" y="4500564"/>
+          <a:ext cx="2800350" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 83333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd w="lg" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>70615</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>130490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8064F05-9F12-C3FB-9268-FAB1140426E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10496550" y="238125"/>
+          <a:ext cx="10290940" cy="6559865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -12775,10 +15206,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="図 133">
+        <xdr:cNvPr id="171" name="図 170">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6313525-BC2F-F8AB-5FD8-FB05133DEAFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5F5CBB-E110-7AE4-B4B3-E9EB9CDEC2CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12787,7 +15218,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -13106,8 +15537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C41CF9B-6CB7-4DBF-B3E3-10CE07566D4A}">
   <dimension ref="A2:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="AP23" sqref="AP23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13137,11 +15568,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A179A2-4211-4B33-86AA-731B91CCA0A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="12.25" style="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5763FD-91B4-496C-A94F-C8ADB8C70B01}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AS45" sqref="AS45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
